--- a/Data_clean/MCAS/Estados_US/Edos_USA_2012/PENNSYLVANIA_2012.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2012/PENNSYLVANIA_2012.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Champoton</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Hopelchen</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Arriaga</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Bejucal De Ocampo</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Bella Vista</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Cacahoatan</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Chenalho</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Cintalapa</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Comitan De Dominguez</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Copainala</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Huehuetan</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Huitiupan</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Huixtan</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Ixtapangajoya</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>La Grandeza</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>La Independencia</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -860,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -873,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -886,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Ocozocoautla De Espinosa</t>
@@ -899,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Ostuacan</t>
@@ -912,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Reforma</t>
@@ -925,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -938,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Socoltenango</t>
@@ -951,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Suchiapa</t>
@@ -964,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -977,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -990,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Tuxtla Chico</t>
@@ -1003,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Tuxtla Gutierrez</t>
@@ -1016,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Tuzantan</t>
@@ -1029,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Tzimol</t>
@@ -1042,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1055,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Villa Corzo</t>
@@ -1068,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Villaflores</t>
@@ -1081,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1112,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Camargo</t>
@@ -1125,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -1138,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Ignacio Zaragoza</t>
@@ -1151,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Juarez</t>
@@ -1164,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -1177,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -1190,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Santa Barbara</t>
@@ -1203,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1234,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Lamadrid</t>
@@ -1247,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -1260,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Monclova</t>
@@ -1273,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Muzquiz</t>
@@ -1286,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Sabinas</t>
@@ -1299,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Saltillo</t>
@@ -1312,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -1325,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Torreon</t>
@@ -1338,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1369,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1400,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -1413,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Benito Juarez</t>
@@ -1426,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Coyoacan</t>
@@ -1439,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -1452,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1465,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1478,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1491,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -1504,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1517,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Milpa Alta</t>
@@ -1530,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Tlahuac</t>
@@ -1543,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1556,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1569,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -1582,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1613,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -1626,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Gomez Palacio</t>
@@ -1639,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Inde</t>
@@ -1652,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Mapimi</t>
@@ -1665,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -1678,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Poanas</t>
@@ -1691,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1722,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Acambaro</t>
@@ -1735,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Allende</t>
@@ -1748,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Apaseo El Alto</t>
@@ -1761,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -1774,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Coroneo</t>
@@ -1787,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -1800,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Cueramaro</t>
@@ -1813,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Dolores Hidalgo</t>
@@ -1826,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -1839,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Huanimaro</t>
@@ -1852,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1865,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Jaral Del Progreso</t>
@@ -1878,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Jerecuaro</t>
@@ -1891,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Leon</t>
@@ -1904,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -1917,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Moroleon</t>
@@ -1930,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Penjamo</t>
@@ -1943,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -1956,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -1969,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -1982,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>San Diego De La Union</t>
@@ -1995,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -2008,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -2021,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Santiago Maravatio</t>
@@ -2034,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Silao</t>
@@ -2047,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Tarandacuao</t>
@@ -2060,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -2073,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -2086,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -2099,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -2112,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Villagran</t>
@@ -2125,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -2138,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="C133">
         <v>351</v>
       </c>
@@ -2164,6 +2769,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -2177,6 +2787,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Ajuchitlan Del Progreso</t>
@@ -2190,6 +2805,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Alcozauca De Guerrero</t>
@@ -2203,6 +2823,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Alpoyeca</t>
@@ -2216,6 +2841,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Apaxtla</t>
@@ -2229,6 +2859,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -2242,6 +2877,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -2255,6 +2895,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Atoyac De Alvarez</t>
@@ -2268,6 +2913,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -2281,6 +2931,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Azoyu</t>
@@ -2294,6 +2949,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Chilapa De Alvarez</t>
@@ -2307,6 +2967,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -2320,6 +2985,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Coahuayutla De Jose Maria Izazaga</t>
@@ -2333,6 +3003,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -2346,6 +3021,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Copala</t>
@@ -2359,6 +3039,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -2372,6 +3057,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Coyuca De Benitez</t>
@@ -2385,6 +3075,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Coyuca De Catalan</t>
@@ -2398,6 +3093,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -2411,6 +3111,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Cualac</t>
@@ -2424,6 +3129,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Cuetzala Del Progreso</t>
@@ -2437,6 +3147,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzon</t>
@@ -2450,6 +3165,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Eduardo Neri</t>
@@ -2463,6 +3183,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -2476,6 +3201,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>General Canuto A. Neri</t>
@@ -2489,6 +3219,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Huamuxtitlan</t>
@@ -2502,6 +3237,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -2515,6 +3255,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -2528,6 +3273,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Igualapa</t>
@@ -2541,6 +3291,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Ixcateopan De Cuauhtemoc</t>
@@ -2554,6 +3309,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Jose Azueta</t>
@@ -2567,6 +3327,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -2580,6 +3345,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>La Union De Isidoro Montes De Oca</t>
@@ -2593,6 +3363,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -2606,6 +3381,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -2619,6 +3399,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Mochitlan</t>
@@ -2632,6 +3417,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Olinala</t>
@@ -2645,6 +3435,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -2658,6 +3453,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Petatlan</t>
@@ -2671,6 +3471,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Pungarabato</t>
@@ -2684,6 +3489,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -2697,6 +3507,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>San Luis Acatlan</t>
@@ -2710,6 +3525,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -2723,6 +3543,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -2736,6 +3561,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Taxco De Alarcon</t>
@@ -2749,6 +3579,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -2762,6 +3597,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Tecpan De Galeana</t>
@@ -2775,6 +3615,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -2788,6 +3633,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Tepecoacuilco De Trujano</t>
@@ -2801,6 +3651,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Tlacoapa</t>
@@ -2814,6 +3669,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Tlalchapa</t>
@@ -2827,6 +3687,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -2840,6 +3705,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Xalpatlahuac</t>
@@ -2853,6 +3723,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Xochihuehuetlan</t>
@@ -2866,6 +3741,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Xochistlahuaca</t>
@@ -2879,6 +3759,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Zapotitlan Tablas</t>
@@ -2892,6 +3777,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Zirandaro</t>
@@ -2905,6 +3795,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Zitlala</t>
@@ -2918,6 +3813,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2949,6 +3849,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Acaxochitlan</t>
@@ -2962,6 +3867,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Actopan</t>
@@ -2975,6 +3885,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Agua Blanca De Iturbide</t>
@@ -2988,6 +3903,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Alfajayucan</t>
@@ -3001,6 +3921,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Apan</t>
@@ -3014,6 +3939,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Atlapexco</t>
@@ -3027,6 +3957,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Calnali</t>
@@ -3040,6 +3975,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Chapulhuacan</t>
@@ -3053,6 +3993,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Cuautepec De Hinojosa</t>
@@ -3066,6 +4011,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>El Arenal</t>
@@ -3079,6 +4029,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -3092,6 +4047,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Huasca De Ocampo</t>
@@ -3105,6 +4065,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Huehuetla</t>
@@ -3118,6 +4083,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -3131,6 +4101,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -3144,6 +4119,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Jacala De Ledezma</t>
@@ -3157,6 +4137,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Metztitlan</t>
@@ -3170,6 +4155,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Molango De Escamilla</t>
@@ -3183,6 +4173,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Nicolas Flores</t>
@@ -3196,6 +4191,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Omitlan De Juarez</t>
@@ -3209,6 +4209,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -3222,6 +4227,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Pisaflores</t>
@@ -3235,6 +4245,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>San Felipe Orizatlan</t>
@@ -3248,6 +4263,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>San Salvador</t>
@@ -3261,6 +4281,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Santiago De Anaya</t>
@@ -3274,6 +4299,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Tasquillo</t>
@@ -3287,6 +4317,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Tecozautla</t>
@@ -3300,6 +4335,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Tepeapulco</t>
@@ -3313,6 +4353,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Tepeji Del Rio De Ocampo</t>
@@ -3326,6 +4371,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Tianguistengo</t>
@@ -3339,6 +4389,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Tlahuelilpan</t>
@@ -3352,6 +4407,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Tlahuiltepa</t>
@@ -3365,6 +4425,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Tula De Allende</t>
@@ -3378,6 +4443,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -3391,6 +4461,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Yahualica</t>
@@ -3404,6 +4479,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Zacualtipan De Angeles</t>
@@ -3417,6 +4497,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Zapotlan De Juarez</t>
@@ -3430,6 +4515,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Zimapan</t>
@@ -3443,6 +4533,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3474,6 +4569,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Amatitan</t>
@@ -3487,6 +4587,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Arandas</t>
@@ -3500,6 +4605,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Atengo</t>
@@ -3513,6 +4623,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Ayotlan</t>
@@ -3526,6 +4641,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -3539,6 +4659,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Encarnacion De Diaz</t>
@@ -3552,6 +4677,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -3565,6 +4695,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Huejuquilla El Alto</t>
@@ -3578,6 +4713,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Jalostotitlan</t>
@@ -3591,6 +4731,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Jesus Maria</t>
@@ -3604,6 +4749,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -3617,6 +4767,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -3630,6 +4785,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Mazamitla</t>
@@ -3643,6 +4803,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Ocotlan</t>
@@ -3656,6 +4821,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Sayula</t>
@@ -3669,6 +4839,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -3682,6 +4857,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Tecolotlan</t>
@@ -3695,6 +4875,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -3708,6 +4893,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Tepatitlan De Morelos</t>
@@ -3721,6 +4911,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Tizapan El Alto</t>
@@ -3734,6 +4929,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Tlaquepaque</t>
@@ -3747,6 +4947,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Tototlan</t>
@@ -3760,6 +4965,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -3773,6 +4983,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Zapotlan El Grande</t>
@@ -3786,6 +5001,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -3799,6 +5019,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="C260">
         <v>117</v>
       </c>
@@ -3825,6 +5050,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Acolman</t>
@@ -3838,6 +5068,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Aculco</t>
@@ -3851,6 +5086,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Almoloya De Alquisiras</t>
@@ -3864,6 +5104,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Almoloya De Juarez</t>
@@ -3877,6 +5122,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Almoloya Del Rio</t>
@@ -3890,6 +5140,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Amanalco</t>
@@ -3903,6 +5158,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Amatepec</t>
@@ -3916,6 +5176,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Apaxco</t>
@@ -3929,6 +5194,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Atizapan</t>
@@ -3942,6 +5212,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Atizapan De Zaragoza</t>
@@ -3955,6 +5230,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Atlacomulco</t>
@@ -3968,6 +5248,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Atlautla</t>
@@ -3981,6 +5266,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Calimaya</t>
@@ -3994,6 +5284,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Capulhuac</t>
@@ -4007,6 +5302,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -4020,6 +5320,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Chapa De Mota</t>
@@ -4033,6 +5338,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Chicoloapan</t>
@@ -4046,6 +5356,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Chimalhuacan</t>
@@ -4059,6 +5374,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -4072,6 +5392,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Cuautitlan</t>
@@ -4085,6 +5410,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>Cuautitlan Izcalli</t>
@@ -4098,6 +5428,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Donato Guerra</t>
@@ -4111,6 +5446,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -4124,6 +5464,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Ecatzingo</t>
@@ -4137,6 +5482,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -4150,6 +5500,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Huixquilucan</t>
@@ -4163,6 +5518,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Ixtapaluca</t>
@@ -4176,6 +5536,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -4189,6 +5554,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -4202,6 +5572,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Jaltenco</t>
@@ -4215,6 +5590,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Jilotepec</t>
@@ -4228,6 +5608,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Jocotitlan</t>
@@ -4241,6 +5626,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Joquicingo</t>
@@ -4254,6 +5644,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -4267,6 +5662,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Lerma</t>
@@ -4280,6 +5680,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Malinalco</t>
@@ -4293,6 +5698,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -4306,6 +5716,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Naucalpan De Juarez</t>
@@ -4319,6 +5734,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -4332,6 +5752,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>Nicolas Romero</t>
@@ -4345,6 +5770,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Ocuilan</t>
@@ -4358,6 +5788,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Otumba</t>
@@ -4371,6 +5806,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Otzoloapan</t>
@@ -4384,6 +5824,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>Otzolotepec</t>
@@ -4397,6 +5842,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Ozumba</t>
@@ -4410,6 +5860,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Rayon</t>
@@ -4423,6 +5878,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -4436,6 +5896,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Santo Tomas</t>
@@ -4449,6 +5914,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -4462,6 +5932,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Tecamac</t>
@@ -4475,6 +5950,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -4488,6 +5968,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -4501,6 +5986,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -4514,6 +6004,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Temoaya</t>
@@ -4527,6 +6022,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -4540,6 +6040,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>Tenango Del Valle</t>
@@ -4553,6 +6058,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Teoloyucan</t>
@@ -4566,6 +6076,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Texcaltitlan</t>
@@ -4579,6 +6094,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -4592,6 +6112,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Tianguistenco</t>
@@ -4605,6 +6130,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Tlalmanalco</t>
@@ -4618,6 +6148,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -4631,6 +6166,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -4644,6 +6184,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Tonatico</t>
@@ -4657,6 +6202,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Tultitlan</t>
@@ -4670,6 +6220,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Valle De Bravo</t>
@@ -4683,6 +6238,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>Valle De Chalco Solidaridad</t>
@@ -4696,6 +6256,11 @@
       </c>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>Villa Del Carbon</t>
@@ -4709,6 +6274,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -4722,6 +6292,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -4735,6 +6310,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>Xonacatlan</t>
@@ -4748,6 +6328,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>Zacualpan</t>
@@ -4761,6 +6346,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>Zinacantepec</t>
@@ -4774,6 +6364,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>Zumpahuacan</t>
@@ -4787,6 +6382,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>Zumpango</t>
@@ -4800,6 +6400,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4831,6 +6436,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>Alvaro Obregon</t>
@@ -4844,6 +6454,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>Angangueo</t>
@@ -4857,6 +6472,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>Apatzingan</t>
@@ -4870,6 +6490,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>Buenavista</t>
@@ -4883,6 +6508,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>Caracuaro</t>
@@ -4896,6 +6526,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>Chavinda</t>
@@ -4909,6 +6544,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>Cheran</t>
@@ -4922,6 +6562,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>Chilchota</t>
@@ -4935,6 +6580,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>Churumuco</t>
@@ -4948,6 +6598,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>Coeneo</t>
@@ -4961,6 +6616,11 @@
       </c>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -4974,6 +6634,11 @@
       </c>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>Cotija</t>
@@ -4987,6 +6652,11 @@
       </c>
     </row>
     <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>Cuitzeo</t>
@@ -5000,6 +6670,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -5013,6 +6688,11 @@
       </c>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -5026,6 +6706,11 @@
       </c>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>Jacona</t>
@@ -5039,6 +6724,11 @@
       </c>
     </row>
     <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>Jimenez</t>
@@ -5052,6 +6742,11 @@
       </c>
     </row>
     <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B356" t="inlineStr">
         <is>
           <t>Jiquilpan</t>
@@ -5065,6 +6760,11 @@
       </c>
     </row>
     <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Jose Sixto Verduzco</t>
@@ -5078,6 +6778,11 @@
       </c>
     </row>
     <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B358" t="inlineStr">
         <is>
           <t>La Huacana</t>
@@ -5091,6 +6796,11 @@
       </c>
     </row>
     <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -5104,6 +6814,11 @@
       </c>
     </row>
     <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B360" t="inlineStr">
         <is>
           <t>Lagunillas</t>
@@ -5117,6 +6832,11 @@
       </c>
     </row>
     <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>Lazaro Cardenas</t>
@@ -5130,6 +6850,11 @@
       </c>
     </row>
     <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -5143,6 +6868,11 @@
       </c>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>Madero</t>
@@ -5156,6 +6886,11 @@
       </c>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>Maravatio</t>
@@ -5169,6 +6904,11 @@
       </c>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>Marcos Castellanos</t>
@@ -5182,6 +6922,11 @@
       </c>
     </row>
     <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -5195,6 +6940,11 @@
       </c>
     </row>
     <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -5208,6 +6958,11 @@
       </c>
     </row>
     <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B368" t="inlineStr">
         <is>
           <t>Mugica</t>
@@ -5221,6 +6976,11 @@
       </c>
     </row>
     <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>Nahuatzen</t>
@@ -5234,6 +6994,11 @@
       </c>
     </row>
     <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>Nocupetaro</t>
@@ -5247,6 +7012,11 @@
       </c>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -5260,6 +7030,11 @@
       </c>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
           <t>Panindicuaro</t>
@@ -5273,6 +7048,11 @@
       </c>
     </row>
     <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B373" t="inlineStr">
         <is>
           <t>Paracho</t>
@@ -5286,6 +7066,11 @@
       </c>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B374" t="inlineStr">
         <is>
           <t>Patzcuaro</t>
@@ -5299,6 +7084,11 @@
       </c>
     </row>
     <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B375" t="inlineStr">
         <is>
           <t>Periban</t>
@@ -5312,6 +7102,11 @@
       </c>
     </row>
     <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B376" t="inlineStr">
         <is>
           <t>Purepero</t>
@@ -5325,6 +7120,11 @@
       </c>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B377" t="inlineStr">
         <is>
           <t>Puruandiro</t>
@@ -5338,6 +7138,11 @@
       </c>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr">
         <is>
           <t>Quiroga</t>
@@ -5351,6 +7156,11 @@
       </c>
     </row>
     <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B379" t="inlineStr">
         <is>
           <t>Sahuayo</t>
@@ -5364,6 +7174,11 @@
       </c>
     </row>
     <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B380" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -5377,6 +7192,11 @@
       </c>
     </row>
     <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B381" t="inlineStr">
         <is>
           <t>Santa Ana Maya</t>
@@ -5390,6 +7210,11 @@
       </c>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B382" t="inlineStr">
         <is>
           <t>Senguio</t>
@@ -5403,6 +7228,11 @@
       </c>
     </row>
     <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B383" t="inlineStr">
         <is>
           <t>Tacambaro</t>
@@ -5416,6 +7246,11 @@
       </c>
     </row>
     <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B384" t="inlineStr">
         <is>
           <t>Tangamandapio</t>
@@ -5429,6 +7264,11 @@
       </c>
     </row>
     <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B385" t="inlineStr">
         <is>
           <t>Tanhuato</t>
@@ -5442,6 +7282,11 @@
       </c>
     </row>
     <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B386" t="inlineStr">
         <is>
           <t>Tarimbaro</t>
@@ -5455,6 +7300,11 @@
       </c>
     </row>
     <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B387" t="inlineStr">
         <is>
           <t>Tepalcatepec</t>
@@ -5468,6 +7318,11 @@
       </c>
     </row>
     <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B388" t="inlineStr">
         <is>
           <t>Tinguindin</t>
@@ -5481,6 +7336,11 @@
       </c>
     </row>
     <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B389" t="inlineStr">
         <is>
           <t>Tiquicheo De Nicolas Romero</t>
@@ -5494,6 +7354,11 @@
       </c>
     </row>
     <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B390" t="inlineStr">
         <is>
           <t>Tlalpujahua</t>
@@ -5507,6 +7372,11 @@
       </c>
     </row>
     <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B391" t="inlineStr">
         <is>
           <t>Turicato</t>
@@ -5520,6 +7390,11 @@
       </c>
     </row>
     <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B392" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -5533,6 +7408,11 @@
       </c>
     </row>
     <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B393" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -5546,6 +7426,11 @@
       </c>
     </row>
     <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B394" t="inlineStr">
         <is>
           <t>Tzintzuntzan</t>
@@ -5559,6 +7444,11 @@
       </c>
     </row>
     <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B395" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -5572,6 +7462,11 @@
       </c>
     </row>
     <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B396" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -5585,6 +7480,11 @@
       </c>
     </row>
     <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B397" t="inlineStr">
         <is>
           <t>Villamar</t>
@@ -5598,6 +7498,11 @@
       </c>
     </row>
     <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B398" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -5611,6 +7516,11 @@
       </c>
     </row>
     <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B399" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -5624,6 +7534,11 @@
       </c>
     </row>
     <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B400" t="inlineStr">
         <is>
           <t>Zinapecuaro</t>
@@ -5637,6 +7552,11 @@
       </c>
     </row>
     <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B401" t="inlineStr">
         <is>
           <t>Ziracuaretiro</t>
@@ -5650,6 +7570,11 @@
       </c>
     </row>
     <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B402" t="inlineStr">
         <is>
           <t>Zitacuaro</t>
@@ -5663,6 +7588,11 @@
       </c>
     </row>
     <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B403" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5694,6 +7624,11 @@
       </c>
     </row>
     <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B405" t="inlineStr">
         <is>
           <t>Ayala</t>
@@ -5707,6 +7642,11 @@
       </c>
     </row>
     <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B406" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -5720,6 +7660,11 @@
       </c>
     </row>
     <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B407" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -5733,6 +7678,11 @@
       </c>
     </row>
     <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B408" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -5746,6 +7696,11 @@
       </c>
     </row>
     <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B409" t="inlineStr">
         <is>
           <t>Jantetelco</t>
@@ -5759,6 +7714,11 @@
       </c>
     </row>
     <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B410" t="inlineStr">
         <is>
           <t>Jiutepec</t>
@@ -5772,6 +7732,11 @@
       </c>
     </row>
     <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B411" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -5785,6 +7750,11 @@
       </c>
     </row>
     <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B412" t="inlineStr">
         <is>
           <t>Ocuituco</t>
@@ -5798,6 +7768,11 @@
       </c>
     </row>
     <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B413" t="inlineStr">
         <is>
           <t>Puente De Ixtla</t>
@@ -5811,6 +7786,11 @@
       </c>
     </row>
     <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B414" t="inlineStr">
         <is>
           <t>Temixco</t>
@@ -5824,6 +7804,11 @@
       </c>
     </row>
     <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B415" t="inlineStr">
         <is>
           <t>Tepalcingo</t>
@@ -5837,6 +7822,11 @@
       </c>
     </row>
     <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B416" t="inlineStr">
         <is>
           <t>Tepoztlan</t>
@@ -5850,6 +7840,11 @@
       </c>
     </row>
     <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B417" t="inlineStr">
         <is>
           <t>Tetecala</t>
@@ -5863,6 +7858,11 @@
       </c>
     </row>
     <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B418" t="inlineStr">
         <is>
           <t>Tetela Del Volcan</t>
@@ -5876,6 +7876,11 @@
       </c>
     </row>
     <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B419" t="inlineStr">
         <is>
           <t>Tlaltizapan</t>
@@ -5889,6 +7894,11 @@
       </c>
     </row>
     <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B420" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -5902,6 +7912,11 @@
       </c>
     </row>
     <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B421" t="inlineStr">
         <is>
           <t>Yecapixtla</t>
@@ -5915,6 +7930,11 @@
       </c>
     </row>
     <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B422" t="inlineStr">
         <is>
           <t>Zacatepec De Hidalgo</t>
@@ -5928,6 +7948,11 @@
       </c>
     </row>
     <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B423" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5959,6 +7984,11 @@
       </c>
     </row>
     <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B425" t="inlineStr">
         <is>
           <t>Rosamorada</t>
@@ -5972,6 +8002,11 @@
       </c>
     </row>
     <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B426" t="inlineStr">
         <is>
           <t>San Blas</t>
@@ -5985,6 +8020,11 @@
       </c>
     </row>
     <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B427" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -5998,6 +8038,11 @@
       </c>
     </row>
     <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B428" t="inlineStr">
         <is>
           <t>Xalisco</t>
@@ -6011,6 +8056,11 @@
       </c>
     </row>
     <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B429" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6042,6 +8092,11 @@
       </c>
     </row>
     <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B431" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6073,6 +8128,11 @@
       </c>
     </row>
     <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B433" t="inlineStr">
         <is>
           <t>Acatlan De Perez Figueroa</t>
@@ -6086,6 +8146,11 @@
       </c>
     </row>
     <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B434" t="inlineStr">
         <is>
           <t>Asuncion Ixtaltepec</t>
@@ -6099,6 +8164,11 @@
       </c>
     </row>
     <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B435" t="inlineStr">
         <is>
           <t>Ayoquezco De Aldama</t>
@@ -6112,6 +8182,11 @@
       </c>
     </row>
     <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B436" t="inlineStr">
         <is>
           <t>Candelaria Loxicha</t>
@@ -6125,6 +8200,11 @@
       </c>
     </row>
     <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B437" t="inlineStr">
         <is>
           <t>Chahuites</t>
@@ -6138,6 +8218,11 @@
       </c>
     </row>
     <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B438" t="inlineStr">
         <is>
           <t>Coatecas Altas</t>
@@ -6151,6 +8236,11 @@
       </c>
     </row>
     <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B439" t="inlineStr">
         <is>
           <t>Coicoyan De Las Flores</t>
@@ -6164,6 +8254,11 @@
       </c>
     </row>
     <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B440" t="inlineStr">
         <is>
           <t>Cuilapam De Guerrero</t>
@@ -6177,6 +8272,11 @@
       </c>
     </row>
     <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B441" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Ejutla De Crespo</t>
@@ -6190,6 +8290,11 @@
       </c>
     </row>
     <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B442" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Huajuapan De Leon</t>
@@ -6203,6 +8308,11 @@
       </c>
     </row>
     <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B443" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Tlaxiaco</t>
@@ -6216,6 +8326,11 @@
       </c>
     </row>
     <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B444" t="inlineStr">
         <is>
           <t>Huautla De Jimenez</t>
@@ -6229,6 +8344,11 @@
       </c>
     </row>
     <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B445" t="inlineStr">
         <is>
           <t>Ixpantepec Nieves</t>
@@ -6242,6 +8362,11 @@
       </c>
     </row>
     <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B446" t="inlineStr">
         <is>
           <t>Ixtlan De Juarez</t>
@@ -6255,6 +8380,11 @@
       </c>
     </row>
     <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B447" t="inlineStr">
         <is>
           <t>Juchitan De Zaragoza</t>
@@ -6268,6 +8398,11 @@
       </c>
     </row>
     <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B448" t="inlineStr">
         <is>
           <t>La Compañia</t>
@@ -6281,6 +8416,11 @@
       </c>
     </row>
     <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B449" t="inlineStr">
         <is>
           <t>La Reforma</t>
@@ -6294,6 +8434,11 @@
       </c>
     </row>
     <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B450" t="inlineStr">
         <is>
           <t>Loma Bonita</t>
@@ -6307,6 +8452,11 @@
       </c>
     </row>
     <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B451" t="inlineStr">
         <is>
           <t>Magdalena Jaltepec</t>
@@ -6320,6 +8470,11 @@
       </c>
     </row>
     <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B452" t="inlineStr">
         <is>
           <t>Mariscala De Juarez</t>
@@ -6333,6 +8488,11 @@
       </c>
     </row>
     <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B453" t="inlineStr">
         <is>
           <t>Matias Romero Avendaño</t>
@@ -6346,6 +8506,11 @@
       </c>
     </row>
     <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B454" t="inlineStr">
         <is>
           <t>Mesones Hidalgo</t>
@@ -6359,6 +8524,11 @@
       </c>
     </row>
     <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B455" t="inlineStr">
         <is>
           <t>Miahuatlan De Porfirio Diaz</t>
@@ -6372,6 +8542,11 @@
       </c>
     </row>
     <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B456" t="inlineStr">
         <is>
           <t>Nejapa De Madero</t>
@@ -6385,6 +8560,11 @@
       </c>
     </row>
     <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B457" t="inlineStr">
         <is>
           <t>Oaxaca De Juarez</t>
@@ -6398,6 +8578,11 @@
       </c>
     </row>
     <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B458" t="inlineStr">
         <is>
           <t>Ocotlan De Morelos</t>
@@ -6411,6 +8596,11 @@
       </c>
     </row>
     <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B459" t="inlineStr">
         <is>
           <t>Pluma Hidalgo</t>
@@ -6424,6 +8614,11 @@
       </c>
     </row>
     <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B460" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -6437,6 +8632,11 @@
       </c>
     </row>
     <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B461" t="inlineStr">
         <is>
           <t>Reyes Etla</t>
@@ -6450,6 +8650,11 @@
       </c>
     </row>
     <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B462" t="inlineStr">
         <is>
           <t>Salina Cruz</t>
@@ -6463,6 +8668,11 @@
       </c>
     </row>
     <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B463" t="inlineStr">
         <is>
           <t>San Agustin Chayuco</t>
@@ -6476,6 +8686,11 @@
       </c>
     </row>
     <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B464" t="inlineStr">
         <is>
           <t>San Agustin Loxicha</t>
@@ -6489,6 +8704,11 @@
       </c>
     </row>
     <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr">
         <is>
           <t>San Andres Huaxpaltepec</t>
@@ -6502,6 +8722,11 @@
       </c>
     </row>
     <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
           <t>San Andres Paxtlan</t>
@@ -6515,6 +8740,11 @@
       </c>
     </row>
     <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr">
         <is>
           <t>San Andres Solaga</t>
@@ -6528,6 +8758,11 @@
       </c>
     </row>
     <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
           <t>San Andres Yaa</t>
@@ -6541,6 +8776,11 @@
       </c>
     </row>
     <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
           <t>San Antonio De La Cal</t>
@@ -6554,6 +8794,11 @@
       </c>
     </row>
     <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
           <t>San Antonio Sinicahua</t>
@@ -6567,6 +8812,11 @@
       </c>
     </row>
     <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
           <t>San Carlos Yautepec</t>
@@ -6580,6 +8830,11 @@
       </c>
     </row>
     <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
           <t>San Cristobal Amatlan</t>
@@ -6593,6 +8848,11 @@
       </c>
     </row>
     <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
           <t>San Dionisio Ocotepec</t>
@@ -6606,6 +8866,11 @@
       </c>
     </row>
     <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
           <t>San Esteban Atatlahuca</t>
@@ -6619,6 +8884,11 @@
       </c>
     </row>
     <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr">
         <is>
           <t>San Francisco Cahuacua</t>
@@ -6632,6 +8902,11 @@
       </c>
     </row>
     <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
           <t>San Francisco Del Mar</t>
@@ -6645,6 +8920,11 @@
       </c>
     </row>
     <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B477" t="inlineStr">
         <is>
           <t>San Francisco Telixtlahuaca</t>
@@ -6658,6 +8938,11 @@
       </c>
     </row>
     <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
           <t>San Francisco Tlapancingo</t>
@@ -6671,6 +8956,11 @@
       </c>
     </row>
     <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B479" t="inlineStr">
         <is>
           <t>San Jacinto Tlacotepec</t>
@@ -6684,6 +8974,11 @@
       </c>
     </row>
     <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
           <t>San Jeronimo Silacayoapilla</t>
@@ -6697,6 +8992,11 @@
       </c>
     </row>
     <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr">
         <is>
           <t>San Jose Chiltepec</t>
@@ -6710,6 +9010,11 @@
       </c>
     </row>
     <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B482" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -6723,6 +9028,11 @@
       </c>
     </row>
     <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B483" t="inlineStr">
         <is>
           <t>San Juan Cotzocon</t>
@@ -6736,6 +9046,11 @@
       </c>
     </row>
     <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B484" t="inlineStr">
         <is>
           <t>San Juan Lajarcia</t>
@@ -6749,6 +9064,11 @@
       </c>
     </row>
     <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
           <t>San Juan Mazatlan</t>
@@ -6762,6 +9082,11 @@
       </c>
     </row>
     <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
           <t>San Juan Mixtepec - Distr. 08 -</t>
@@ -6775,6 +9100,11 @@
       </c>
     </row>
     <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B487" t="inlineStr">
         <is>
           <t>San Juan Quiahije</t>
@@ -6788,6 +9118,11 @@
       </c>
     </row>
     <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B488" t="inlineStr">
         <is>
           <t>San Marcos Arteaga</t>
@@ -6801,6 +9136,11 @@
       </c>
     </row>
     <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B489" t="inlineStr">
         <is>
           <t>San Martin Peras</t>
@@ -6814,6 +9154,11 @@
       </c>
     </row>
     <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B490" t="inlineStr">
         <is>
           <t>San Martin Tilcajete</t>
@@ -6827,6 +9172,11 @@
       </c>
     </row>
     <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B491" t="inlineStr">
         <is>
           <t>San Miguel Aloapam</t>
@@ -6840,6 +9190,11 @@
       </c>
     </row>
     <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B492" t="inlineStr">
         <is>
           <t>San Miguel Chicahua</t>
@@ -6853,6 +9208,11 @@
       </c>
     </row>
     <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B493" t="inlineStr">
         <is>
           <t>San Miguel Piedras</t>
@@ -6866,6 +9226,11 @@
       </c>
     </row>
     <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B494" t="inlineStr">
         <is>
           <t>San Miguel Tlacotepec</t>
@@ -6879,6 +9244,11 @@
       </c>
     </row>
     <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B495" t="inlineStr">
         <is>
           <t>San Pablo Etla</t>
@@ -6892,6 +9262,11 @@
       </c>
     </row>
     <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B496" t="inlineStr">
         <is>
           <t>San Pablo Villa De Mitla</t>
@@ -6905,6 +9280,11 @@
       </c>
     </row>
     <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B497" t="inlineStr">
         <is>
           <t>San Pedro El Alto</t>
@@ -6918,6 +9298,11 @@
       </c>
     </row>
     <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B498" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -6931,6 +9316,11 @@
       </c>
     </row>
     <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B499" t="inlineStr">
         <is>
           <t>San Pedro Y San Pablo Ayutla</t>
@@ -6944,6 +9334,11 @@
       </c>
     </row>
     <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B500" t="inlineStr">
         <is>
           <t>San Sebastian Abasolo</t>
@@ -6957,6 +9352,11 @@
       </c>
     </row>
     <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B501" t="inlineStr">
         <is>
           <t>San Vicente Coatlan</t>
@@ -6970,6 +9370,11 @@
       </c>
     </row>
     <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B502" t="inlineStr">
         <is>
           <t>Santa Ana Yareni</t>
@@ -6983,6 +9388,11 @@
       </c>
     </row>
     <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B503" t="inlineStr">
         <is>
           <t>Santa Cruz Amilpas</t>
@@ -6996,6 +9406,11 @@
       </c>
     </row>
     <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B504" t="inlineStr">
         <is>
           <t>Santa Cruz Mixtepec</t>
@@ -7009,6 +9424,11 @@
       </c>
     </row>
     <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B505" t="inlineStr">
         <is>
           <t>Santa Cruz Xitla</t>
@@ -7022,6 +9442,11 @@
       </c>
     </row>
     <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B506" t="inlineStr">
         <is>
           <t>Santa Maria Apazco</t>
@@ -7035,6 +9460,11 @@
       </c>
     </row>
     <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B507" t="inlineStr">
         <is>
           <t>Santa Maria Chimalapa</t>
@@ -7048,6 +9478,11 @@
       </c>
     </row>
     <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B508" t="inlineStr">
         <is>
           <t>Santa Maria Colotepec</t>
@@ -7061,6 +9496,11 @@
       </c>
     </row>
     <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B509" t="inlineStr">
         <is>
           <t>Santa Maria Huatulco</t>
@@ -7074,6 +9514,11 @@
       </c>
     </row>
     <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B510" t="inlineStr">
         <is>
           <t>Santa Maria Huazolotitlan</t>
@@ -7087,6 +9532,11 @@
       </c>
     </row>
     <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B511" t="inlineStr">
         <is>
           <t>Santa Maria Ipalapa</t>
@@ -7100,6 +9550,11 @@
       </c>
     </row>
     <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B512" t="inlineStr">
         <is>
           <t>Santa Maria Jacatepec</t>
@@ -7113,6 +9568,11 @@
       </c>
     </row>
     <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B513" t="inlineStr">
         <is>
           <t>Santa Maria Tonameca</t>
@@ -7126,6 +9586,11 @@
       </c>
     </row>
     <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B514" t="inlineStr">
         <is>
           <t>Santa Maria Zacatepec</t>
@@ -7139,6 +9604,11 @@
       </c>
     </row>
     <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B515" t="inlineStr">
         <is>
           <t>Santiago Ayuquililla</t>
@@ -7152,6 +9622,11 @@
       </c>
     </row>
     <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B516" t="inlineStr">
         <is>
           <t>Santiago Ixtayutla</t>
@@ -7165,6 +9640,11 @@
       </c>
     </row>
     <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B517" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -7178,6 +9658,11 @@
       </c>
     </row>
     <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B518" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -7191,6 +9676,11 @@
       </c>
     </row>
     <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B519" t="inlineStr">
         <is>
           <t>Santiago Lachiguiri</t>
@@ -7204,6 +9694,11 @@
       </c>
     </row>
     <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B520" t="inlineStr">
         <is>
           <t>Santiago Llano Grande</t>
@@ -7217,6 +9712,11 @@
       </c>
     </row>
     <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B521" t="inlineStr">
         <is>
           <t>Santiago Matatlan</t>
@@ -7230,6 +9730,11 @@
       </c>
     </row>
     <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B522" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -7243,6 +9748,11 @@
       </c>
     </row>
     <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B523" t="inlineStr">
         <is>
           <t>Santiago Tapextla</t>
@@ -7256,6 +9766,11 @@
       </c>
     </row>
     <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B524" t="inlineStr">
         <is>
           <t>Santiago Tetepec</t>
@@ -7269,6 +9784,11 @@
       </c>
     </row>
     <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B525" t="inlineStr">
         <is>
           <t>Santiago Texcalcingo</t>
@@ -7282,6 +9802,11 @@
       </c>
     </row>
     <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B526" t="inlineStr">
         <is>
           <t>Santiago Yaitepec</t>
@@ -7295,6 +9820,11 @@
       </c>
     </row>
     <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B527" t="inlineStr">
         <is>
           <t>Santiago Yaveo</t>
@@ -7308,6 +9838,11 @@
       </c>
     </row>
     <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B528" t="inlineStr">
         <is>
           <t>Santiago Yosondua</t>
@@ -7321,6 +9856,11 @@
       </c>
     </row>
     <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B529" t="inlineStr">
         <is>
           <t>Santo Domingo Nuxaa</t>
@@ -7334,6 +9874,11 @@
       </c>
     </row>
     <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B530" t="inlineStr">
         <is>
           <t>Santo Domingo Teojomulco</t>
@@ -7347,6 +9892,11 @@
       </c>
     </row>
     <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B531" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -7360,6 +9910,11 @@
       </c>
     </row>
     <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B532" t="inlineStr">
         <is>
           <t>Silacayoapam</t>
@@ -7373,6 +9928,11 @@
       </c>
     </row>
     <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B533" t="inlineStr">
         <is>
           <t>Tamazulapam Del Espiritu Santo</t>
@@ -7386,6 +9946,11 @@
       </c>
     </row>
     <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B534" t="inlineStr">
         <is>
           <t>Teotitlan Del Valle</t>
@@ -7399,6 +9964,11 @@
       </c>
     </row>
     <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B535" t="inlineStr">
         <is>
           <t>Tezoatlan De Segura Y Luna</t>
@@ -7412,6 +9982,11 @@
       </c>
     </row>
     <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B536" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -7425,6 +10000,11 @@
       </c>
     </row>
     <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B537" t="inlineStr">
         <is>
           <t>Trinidad Zaachila</t>
@@ -7438,6 +10018,11 @@
       </c>
     </row>
     <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B538" t="inlineStr">
         <is>
           <t>Villa De Chilapa De Diaz</t>
@@ -7451,6 +10036,11 @@
       </c>
     </row>
     <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B539" t="inlineStr">
         <is>
           <t>Villa De Etla</t>
@@ -7464,6 +10054,11 @@
       </c>
     </row>
     <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B540" t="inlineStr">
         <is>
           <t>Villa De Tamazulapam Del Progreso</t>
@@ -7477,6 +10072,11 @@
       </c>
     </row>
     <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B541" t="inlineStr">
         <is>
           <t>Villa De Tututepec De Melchor Ocampo</t>
@@ -7490,6 +10090,11 @@
       </c>
     </row>
     <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B542" t="inlineStr">
         <is>
           <t>Villa Sola De Vega</t>
@@ -7503,6 +10108,11 @@
       </c>
     </row>
     <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B543" t="inlineStr">
         <is>
           <t>Yogana</t>
@@ -7516,6 +10126,11 @@
       </c>
     </row>
     <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B544" t="inlineStr">
         <is>
           <t>Zapotitlan Del Rio</t>
@@ -7529,6 +10144,11 @@
       </c>
     </row>
     <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B545" t="inlineStr">
         <is>
           <t>Zapotitlan Lagunas</t>
@@ -7542,6 +10162,11 @@
       </c>
     </row>
     <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B546" t="inlineStr">
         <is>
           <t>Zimatlan De Alvarez</t>
@@ -7555,6 +10180,11 @@
       </c>
     </row>
     <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B547" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7586,6 +10216,11 @@
       </c>
     </row>
     <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B549" t="inlineStr">
         <is>
           <t>Acateno</t>
@@ -7599,6 +10234,11 @@
       </c>
     </row>
     <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B550" t="inlineStr">
         <is>
           <t>Acatlan</t>
@@ -7612,6 +10252,11 @@
       </c>
     </row>
     <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B551" t="inlineStr">
         <is>
           <t>Acatzingo</t>
@@ -7625,6 +10270,11 @@
       </c>
     </row>
     <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B552" t="inlineStr">
         <is>
           <t>Acteopan</t>
@@ -7638,6 +10288,11 @@
       </c>
     </row>
     <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B553" t="inlineStr">
         <is>
           <t>Ajalpan</t>
@@ -7651,6 +10306,11 @@
       </c>
     </row>
     <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B554" t="inlineStr">
         <is>
           <t>Albino Zertuche</t>
@@ -7664,6 +10324,11 @@
       </c>
     </row>
     <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B555" t="inlineStr">
         <is>
           <t>Aljojuca</t>
@@ -7677,6 +10342,11 @@
       </c>
     </row>
     <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B556" t="inlineStr">
         <is>
           <t>Aquixtla</t>
@@ -7690,6 +10360,11 @@
       </c>
     </row>
     <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B557" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -7703,6 +10378,11 @@
       </c>
     </row>
     <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B558" t="inlineStr">
         <is>
           <t>Atzala</t>
@@ -7716,6 +10396,11 @@
       </c>
     </row>
     <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B559" t="inlineStr">
         <is>
           <t>Atzitzihuacan</t>
@@ -7729,6 +10414,11 @@
       </c>
     </row>
     <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B560" t="inlineStr">
         <is>
           <t>Atzitzintla</t>
@@ -7742,6 +10432,11 @@
       </c>
     </row>
     <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B561" t="inlineStr">
         <is>
           <t>Calpan</t>
@@ -7755,6 +10450,11 @@
       </c>
     </row>
     <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B562" t="inlineStr">
         <is>
           <t>Chalchicomula De Sesma</t>
@@ -7768,6 +10468,11 @@
       </c>
     </row>
     <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B563" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -7781,6 +10486,11 @@
       </c>
     </row>
     <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B564" t="inlineStr">
         <is>
           <t>Chiautzingo</t>
@@ -7794,6 +10504,11 @@
       </c>
     </row>
     <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B565" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -7807,6 +10522,11 @@
       </c>
     </row>
     <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B566" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -7820,6 +10540,11 @@
       </c>
     </row>
     <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B567" t="inlineStr">
         <is>
           <t>Chila De La Sal</t>
@@ -7833,6 +10558,11 @@
       </c>
     </row>
     <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B568" t="inlineStr">
         <is>
           <t>Chilchotla</t>
@@ -7846,6 +10576,11 @@
       </c>
     </row>
     <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B569" t="inlineStr">
         <is>
           <t>Chinantla</t>
@@ -7859,6 +10594,11 @@
       </c>
     </row>
     <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B570" t="inlineStr">
         <is>
           <t>Coronango</t>
@@ -7872,6 +10612,11 @@
       </c>
     </row>
     <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B571" t="inlineStr">
         <is>
           <t>Coxcatlan</t>
@@ -7885,6 +10630,11 @@
       </c>
     </row>
     <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B572" t="inlineStr">
         <is>
           <t>Cuautempan</t>
@@ -7898,6 +10648,11 @@
       </c>
     </row>
     <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B573" t="inlineStr">
         <is>
           <t>Cuautlancingo</t>
@@ -7911,6 +10666,11 @@
       </c>
     </row>
     <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B574" t="inlineStr">
         <is>
           <t>Cuayuca De Andrade</t>
@@ -7924,6 +10684,11 @@
       </c>
     </row>
     <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B575" t="inlineStr">
         <is>
           <t>Cuyoaco</t>
@@ -7937,6 +10702,11 @@
       </c>
     </row>
     <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B576" t="inlineStr">
         <is>
           <t>Domingo Arenas</t>
@@ -7950,6 +10720,11 @@
       </c>
     </row>
     <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B577" t="inlineStr">
         <is>
           <t>Epatlan</t>
@@ -7963,6 +10738,11 @@
       </c>
     </row>
     <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B578" t="inlineStr">
         <is>
           <t>Esperanza</t>
@@ -7976,6 +10756,11 @@
       </c>
     </row>
     <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B579" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -7989,6 +10774,11 @@
       </c>
     </row>
     <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B580" t="inlineStr">
         <is>
           <t>Honey</t>
@@ -8002,6 +10792,11 @@
       </c>
     </row>
     <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B581" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -8015,6 +10810,11 @@
       </c>
     </row>
     <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B582" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -8028,6 +10828,11 @@
       </c>
     </row>
     <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B583" t="inlineStr">
         <is>
           <t>Huehuetlan El Chico</t>
@@ -8041,6 +10846,11 @@
       </c>
     </row>
     <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B584" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -8054,6 +10864,11 @@
       </c>
     </row>
     <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B585" t="inlineStr">
         <is>
           <t>Hueytamalco</t>
@@ -8067,6 +10882,11 @@
       </c>
     </row>
     <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B586" t="inlineStr">
         <is>
           <t>Ixtacamaxtitlan</t>
@@ -8080,6 +10900,11 @@
       </c>
     </row>
     <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B587" t="inlineStr">
         <is>
           <t>Izucar De Matamoros</t>
@@ -8093,6 +10918,11 @@
       </c>
     </row>
     <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B588" t="inlineStr">
         <is>
           <t>Jalpan</t>
@@ -8106,6 +10936,11 @@
       </c>
     </row>
     <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B589" t="inlineStr">
         <is>
           <t>Jolalpan</t>
@@ -8119,6 +10954,11 @@
       </c>
     </row>
     <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B590" t="inlineStr">
         <is>
           <t>Jopala</t>
@@ -8132,6 +10972,11 @@
       </c>
     </row>
     <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B591" t="inlineStr">
         <is>
           <t>Juan C. Bonilla</t>
@@ -8145,6 +10990,11 @@
       </c>
     </row>
     <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B592" t="inlineStr">
         <is>
           <t>Juan N. Mendez</t>
@@ -8158,6 +11008,11 @@
       </c>
     </row>
     <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B593" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -8171,6 +11026,11 @@
       </c>
     </row>
     <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B594" t="inlineStr">
         <is>
           <t>Los Reyes De Juarez</t>
@@ -8184,6 +11044,11 @@
       </c>
     </row>
     <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B595" t="inlineStr">
         <is>
           <t>Molcaxac</t>
@@ -8197,6 +11062,11 @@
       </c>
     </row>
     <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B596" t="inlineStr">
         <is>
           <t>Nauzontla</t>
@@ -8210,6 +11080,11 @@
       </c>
     </row>
     <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B597" t="inlineStr">
         <is>
           <t>Ocoyucan</t>
@@ -8223,6 +11098,11 @@
       </c>
     </row>
     <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B598" t="inlineStr">
         <is>
           <t>Palmar De Bravo</t>
@@ -8236,6 +11116,11 @@
       </c>
     </row>
     <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B599" t="inlineStr">
         <is>
           <t>Pantepec</t>
@@ -8249,6 +11134,11 @@
       </c>
     </row>
     <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B600" t="inlineStr">
         <is>
           <t>Petlalcingo</t>
@@ -8262,6 +11152,11 @@
       </c>
     </row>
     <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B601" t="inlineStr">
         <is>
           <t>Piaxtla</t>
@@ -8275,6 +11170,11 @@
       </c>
     </row>
     <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B602" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -8288,6 +11188,11 @@
       </c>
     </row>
     <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B603" t="inlineStr">
         <is>
           <t>Quecholac</t>
@@ -8301,6 +11206,11 @@
       </c>
     </row>
     <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B604" t="inlineStr">
         <is>
           <t>Quimixtlan</t>
@@ -8314,6 +11224,11 @@
       </c>
     </row>
     <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B605" t="inlineStr">
         <is>
           <t>San Andres Cholula</t>
@@ -8327,6 +11242,11 @@
       </c>
     </row>
     <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B606" t="inlineStr">
         <is>
           <t>San Felipe Teotlalcingo</t>
@@ -8340,6 +11260,11 @@
       </c>
     </row>
     <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B607" t="inlineStr">
         <is>
           <t>San Gregorio Atzompa</t>
@@ -8353,6 +11278,11 @@
       </c>
     </row>
     <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B608" t="inlineStr">
         <is>
           <t>San Jeronimo Tecuanipan</t>
@@ -8366,6 +11296,11 @@
       </c>
     </row>
     <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B609" t="inlineStr">
         <is>
           <t>San Martin Texmelucan</t>
@@ -8379,6 +11314,11 @@
       </c>
     </row>
     <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B610" t="inlineStr">
         <is>
           <t>San Martin Totoltepec</t>
@@ -8392,6 +11332,11 @@
       </c>
     </row>
     <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B611" t="inlineStr">
         <is>
           <t>San Pablo Anicano</t>
@@ -8405,6 +11350,11 @@
       </c>
     </row>
     <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B612" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -8418,6 +11368,11 @@
       </c>
     </row>
     <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B613" t="inlineStr">
         <is>
           <t>San Salvador El Seco</t>
@@ -8431,6 +11386,11 @@
       </c>
     </row>
     <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B614" t="inlineStr">
         <is>
           <t>San Salvador Huixcolotla</t>
@@ -8444,6 +11404,11 @@
       </c>
     </row>
     <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B615" t="inlineStr">
         <is>
           <t>Santa Isabel Cholula</t>
@@ -8457,6 +11422,11 @@
       </c>
     </row>
     <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B616" t="inlineStr">
         <is>
           <t>Tecali De Herrera</t>
@@ -8470,6 +11440,11 @@
       </c>
     </row>
     <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B617" t="inlineStr">
         <is>
           <t>Tecamachalco</t>
@@ -8483,6 +11458,11 @@
       </c>
     </row>
     <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B618" t="inlineStr">
         <is>
           <t>Tecomatlan</t>
@@ -8496,6 +11476,11 @@
       </c>
     </row>
     <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B619" t="inlineStr">
         <is>
           <t>Tehuacan</t>
@@ -8509,6 +11494,11 @@
       </c>
     </row>
     <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B620" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -8522,6 +11512,11 @@
       </c>
     </row>
     <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B621" t="inlineStr">
         <is>
           <t>Teopantlan</t>
@@ -8535,6 +11530,11 @@
       </c>
     </row>
     <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B622" t="inlineStr">
         <is>
           <t>Tepanco De Lopez</t>
@@ -8548,6 +11548,11 @@
       </c>
     </row>
     <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B623" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -8561,6 +11566,11 @@
       </c>
     </row>
     <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B624" t="inlineStr">
         <is>
           <t>Tepeojuma</t>
@@ -8574,6 +11584,11 @@
       </c>
     </row>
     <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B625" t="inlineStr">
         <is>
           <t>Tepetzintla</t>
@@ -8587,6 +11602,11 @@
       </c>
     </row>
     <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B626" t="inlineStr">
         <is>
           <t>Tepexco</t>
@@ -8600,6 +11620,11 @@
       </c>
     </row>
     <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B627" t="inlineStr">
         <is>
           <t>Tepexi De Rodriguez</t>
@@ -8613,6 +11638,11 @@
       </c>
     </row>
     <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B628" t="inlineStr">
         <is>
           <t>Tetela De Ocampo</t>
@@ -8626,6 +11656,11 @@
       </c>
     </row>
     <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B629" t="inlineStr">
         <is>
           <t>Teziutlan</t>
@@ -8639,6 +11674,11 @@
       </c>
     </row>
     <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B630" t="inlineStr">
         <is>
           <t>Tianguismanalco</t>
@@ -8652,6 +11692,11 @@
       </c>
     </row>
     <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B631" t="inlineStr">
         <is>
           <t>Tilapa</t>
@@ -8665,6 +11710,11 @@
       </c>
     </row>
     <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B632" t="inlineStr">
         <is>
           <t>Tlachichuca</t>
@@ -8678,6 +11728,11 @@
       </c>
     </row>
     <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B633" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juarez</t>
@@ -8691,6 +11746,11 @@
       </c>
     </row>
     <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B634" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -8704,6 +11764,11 @@
       </c>
     </row>
     <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B635" t="inlineStr">
         <is>
           <t>Tlaola</t>
@@ -8717,6 +11782,11 @@
       </c>
     </row>
     <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B636" t="inlineStr">
         <is>
           <t>Tlapanala</t>
@@ -8730,6 +11800,11 @@
       </c>
     </row>
     <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B637" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -8743,6 +11818,11 @@
       </c>
     </row>
     <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B638" t="inlineStr">
         <is>
           <t>Tochimilco</t>
@@ -8756,6 +11836,11 @@
       </c>
     </row>
     <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B639" t="inlineStr">
         <is>
           <t>Tochtepec</t>
@@ -8769,6 +11854,11 @@
       </c>
     </row>
     <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B640" t="inlineStr">
         <is>
           <t>Tulcingo</t>
@@ -8782,6 +11872,11 @@
       </c>
     </row>
     <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B641" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -8795,6 +11890,11 @@
       </c>
     </row>
     <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B642" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -8808,6 +11908,11 @@
       </c>
     </row>
     <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B643" t="inlineStr">
         <is>
           <t>Xicotepec</t>
@@ -8821,6 +11926,11 @@
       </c>
     </row>
     <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B644" t="inlineStr">
         <is>
           <t>Xicotlan</t>
@@ -8834,6 +11944,11 @@
       </c>
     </row>
     <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B645" t="inlineStr">
         <is>
           <t>Xiutetelco</t>
@@ -8847,6 +11962,11 @@
       </c>
     </row>
     <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B646" t="inlineStr">
         <is>
           <t>Xochiltepec</t>
@@ -8860,6 +11980,11 @@
       </c>
     </row>
     <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B647" t="inlineStr">
         <is>
           <t>Xochitlan Todos Santos</t>
@@ -8873,6 +11998,11 @@
       </c>
     </row>
     <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B648" t="inlineStr">
         <is>
           <t>Yehualtepec</t>
@@ -8886,6 +12016,11 @@
       </c>
     </row>
     <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B649" t="inlineStr">
         <is>
           <t>Zacapala</t>
@@ -8899,6 +12034,11 @@
       </c>
     </row>
     <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B650" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -8912,6 +12052,11 @@
       </c>
     </row>
     <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B651" t="inlineStr">
         <is>
           <t>Zacatlan</t>
@@ -8925,6 +12070,11 @@
       </c>
     </row>
     <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B652" t="inlineStr">
         <is>
           <t>Zapotitlan</t>
@@ -8938,6 +12088,11 @@
       </c>
     </row>
     <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B653" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -8951,6 +12106,11 @@
       </c>
     </row>
     <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B654" t="inlineStr">
         <is>
           <t>Zihuateutla</t>
@@ -8964,6 +12124,11 @@
       </c>
     </row>
     <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B655" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8977,6 +12142,11 @@
       </c>
     </row>
     <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B656" t="inlineStr">
         <is>
           <t>Arroyo Seco</t>
@@ -8990,6 +12160,11 @@
       </c>
     </row>
     <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B657" t="inlineStr">
         <is>
           <t>Cadereyta De Montes</t>
@@ -9003,6 +12178,11 @@
       </c>
     </row>
     <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B658" t="inlineStr">
         <is>
           <t>Colon</t>
@@ -9016,6 +12196,11 @@
       </c>
     </row>
     <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B659" t="inlineStr">
         <is>
           <t>Jalpan De Serra</t>
@@ -9029,6 +12214,11 @@
       </c>
     </row>
     <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B660" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -9042,6 +12232,11 @@
       </c>
     </row>
     <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B661" t="inlineStr">
         <is>
           <t>Peñamiller</t>
@@ -9055,6 +12250,11 @@
       </c>
     </row>
     <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B662" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -9068,6 +12268,11 @@
       </c>
     </row>
     <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B663" t="inlineStr">
         <is>
           <t>Queretaro</t>
@@ -9081,6 +12286,11 @@
       </c>
     </row>
     <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B664" t="inlineStr">
         <is>
           <t>San Joaquin</t>
@@ -9094,6 +12304,11 @@
       </c>
     </row>
     <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B665" t="inlineStr">
         <is>
           <t>San Juan Del Rio</t>
@@ -9107,6 +12322,11 @@
       </c>
     </row>
     <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B666" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9138,6 +12358,11 @@
       </c>
     </row>
     <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B668" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9169,6 +12394,11 @@
       </c>
     </row>
     <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B670" t="inlineStr">
         <is>
           <t>Ebano</t>
@@ -9182,6 +12412,11 @@
       </c>
     </row>
     <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B671" t="inlineStr">
         <is>
           <t>Lagunillas</t>
@@ -9195,6 +12430,11 @@
       </c>
     </row>
     <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B672" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -9208,6 +12448,11 @@
       </c>
     </row>
     <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B673" t="inlineStr">
         <is>
           <t>San Luis Potosi</t>
@@ -9221,6 +12466,11 @@
       </c>
     </row>
     <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B674" t="inlineStr">
         <is>
           <t>Santa Maria Del Rio</t>
@@ -9234,6 +12484,11 @@
       </c>
     </row>
     <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B675" t="inlineStr">
         <is>
           <t>Tamasopo</t>
@@ -9247,6 +12502,11 @@
       </c>
     </row>
     <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B676" t="inlineStr">
         <is>
           <t>Tamazunchale</t>
@@ -9260,6 +12520,11 @@
       </c>
     </row>
     <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B677" t="inlineStr">
         <is>
           <t>Villa De Guadalupe</t>
@@ -9273,6 +12538,11 @@
       </c>
     </row>
     <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B678" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -9286,6 +12556,11 @@
       </c>
     </row>
     <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B679" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9317,6 +12592,11 @@
       </c>
     </row>
     <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B681" t="inlineStr">
         <is>
           <t>Choix</t>
@@ -9330,6 +12610,11 @@
       </c>
     </row>
     <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B682" t="inlineStr">
         <is>
           <t>Culiacan</t>
@@ -9343,6 +12628,11 @@
       </c>
     </row>
     <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B683" t="inlineStr">
         <is>
           <t>El Fuerte</t>
@@ -9356,6 +12646,11 @@
       </c>
     </row>
     <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B684" t="inlineStr">
         <is>
           <t>Escuinapa</t>
@@ -9369,6 +12664,11 @@
       </c>
     </row>
     <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B685" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -9382,6 +12682,11 @@
       </c>
     </row>
     <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B686" t="inlineStr">
         <is>
           <t>Mazatlan</t>
@@ -9395,6 +12700,11 @@
       </c>
     </row>
     <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B687" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9426,6 +12736,11 @@
       </c>
     </row>
     <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B689" t="inlineStr">
         <is>
           <t>Guaymas</t>
@@ -9439,6 +12754,11 @@
       </c>
     </row>
     <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B690" t="inlineStr">
         <is>
           <t>San Luis Rio Colorado</t>
@@ -9452,6 +12772,11 @@
       </c>
     </row>
     <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B691" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9483,6 +12808,11 @@
       </c>
     </row>
     <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B693" t="inlineStr">
         <is>
           <t>Cardenas</t>
@@ -9496,6 +12826,11 @@
       </c>
     </row>
     <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B694" t="inlineStr">
         <is>
           <t>Centro</t>
@@ -9509,6 +12844,11 @@
       </c>
     </row>
     <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B695" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -9522,6 +12862,11 @@
       </c>
     </row>
     <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B696" t="inlineStr">
         <is>
           <t>Jalpa De Mendez</t>
@@ -9535,6 +12880,11 @@
       </c>
     </row>
     <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B697" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9566,6 +12916,11 @@
       </c>
     </row>
     <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B699" t="inlineStr">
         <is>
           <t>Bustamante</t>
@@ -9579,6 +12934,11 @@
       </c>
     </row>
     <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B700" t="inlineStr">
         <is>
           <t>El Mante</t>
@@ -9592,6 +12952,11 @@
       </c>
     </row>
     <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B701" t="inlineStr">
         <is>
           <t>Gonzalez</t>
@@ -9605,6 +12970,11 @@
       </c>
     </row>
     <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B702" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -9618,6 +12988,11 @@
       </c>
     </row>
     <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B703" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -9631,6 +13006,11 @@
       </c>
     </row>
     <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B704" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -9644,6 +13024,11 @@
       </c>
     </row>
     <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B705" t="inlineStr">
         <is>
           <t>Rio Bravo</t>
@@ -9657,6 +13042,11 @@
       </c>
     </row>
     <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B706" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -9670,6 +13060,11 @@
       </c>
     </row>
     <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B707" t="inlineStr">
         <is>
           <t>Tula</t>
@@ -9683,6 +13078,11 @@
       </c>
     </row>
     <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B708" t="inlineStr">
         <is>
           <t>Valle Hermoso</t>
@@ -9696,6 +13096,11 @@
       </c>
     </row>
     <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B709" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9727,6 +13132,11 @@
       </c>
     </row>
     <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B711" t="inlineStr">
         <is>
           <t>Calpulalpan</t>
@@ -9740,6 +13150,11 @@
       </c>
     </row>
     <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B712" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -9753,6 +13168,11 @@
       </c>
     </row>
     <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B713" t="inlineStr">
         <is>
           <t>Huamantla</t>
@@ -9766,6 +13186,11 @@
       </c>
     </row>
     <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B714" t="inlineStr">
         <is>
           <t>Hueyotlipan</t>
@@ -9779,6 +13204,11 @@
       </c>
     </row>
     <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B715" t="inlineStr">
         <is>
           <t>Nativitas</t>
@@ -9792,6 +13222,11 @@
       </c>
     </row>
     <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B716" t="inlineStr">
         <is>
           <t>San Pablo Del Monte</t>
@@ -9805,6 +13240,11 @@
       </c>
     </row>
     <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B717" t="inlineStr">
         <is>
           <t>Teolocholco</t>
@@ -9818,6 +13258,11 @@
       </c>
     </row>
     <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B718" t="inlineStr">
         <is>
           <t>Tepetitla De Lardizabal</t>
@@ -9831,6 +13276,11 @@
       </c>
     </row>
     <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B719" t="inlineStr">
         <is>
           <t>Tepeyanco</t>
@@ -9844,6 +13294,11 @@
       </c>
     </row>
     <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B720" t="inlineStr">
         <is>
           <t>Tetlatlahuca</t>
@@ -9857,6 +13312,11 @@
       </c>
     </row>
     <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B721" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -9870,6 +13330,11 @@
       </c>
     </row>
     <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B722" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -9883,6 +13348,11 @@
       </c>
     </row>
     <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B723" t="inlineStr">
         <is>
           <t>Xaloztoc</t>
@@ -9896,6 +13366,11 @@
       </c>
     </row>
     <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B724" t="inlineStr">
         <is>
           <t>Xaltocan</t>
@@ -9909,6 +13384,11 @@
       </c>
     </row>
     <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B725" t="inlineStr">
         <is>
           <t>Xicohtzinco</t>
@@ -9922,6 +13402,11 @@
       </c>
     </row>
     <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B726" t="inlineStr">
         <is>
           <t>Zacatelco</t>
@@ -9935,6 +13420,11 @@
       </c>
     </row>
     <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B727" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9966,6 +13456,11 @@
       </c>
     </row>
     <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B729" t="inlineStr">
         <is>
           <t>Actopan</t>
@@ -9979,6 +13474,11 @@
       </c>
     </row>
     <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B730" t="inlineStr">
         <is>
           <t>Acultzingo</t>
@@ -9992,6 +13492,11 @@
       </c>
     </row>
     <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B731" t="inlineStr">
         <is>
           <t>Altotonga</t>
@@ -10005,6 +13510,11 @@
       </c>
     </row>
     <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B732" t="inlineStr">
         <is>
           <t>Alvarado</t>
@@ -10018,6 +13528,11 @@
       </c>
     </row>
     <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B733" t="inlineStr">
         <is>
           <t>Atoyac</t>
@@ -10031,6 +13546,11 @@
       </c>
     </row>
     <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B734" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -10044,6 +13564,11 @@
       </c>
     </row>
     <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B735" t="inlineStr">
         <is>
           <t>Boca Del Rio</t>
@@ -10057,6 +13582,11 @@
       </c>
     </row>
     <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B736" t="inlineStr">
         <is>
           <t>Calcahualco</t>
@@ -10070,6 +13600,11 @@
       </c>
     </row>
     <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B737" t="inlineStr">
         <is>
           <t>Camerino Z. Mendoza</t>
@@ -10083,6 +13618,11 @@
       </c>
     </row>
     <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B738" t="inlineStr">
         <is>
           <t>Carlos A. Carrillo</t>
@@ -10096,6 +13636,11 @@
       </c>
     </row>
     <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B739" t="inlineStr">
         <is>
           <t>Catemaco</t>
@@ -10109,6 +13654,11 @@
       </c>
     </row>
     <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B740" t="inlineStr">
         <is>
           <t>Cerro Azul</t>
@@ -10122,6 +13672,11 @@
       </c>
     </row>
     <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B741" t="inlineStr">
         <is>
           <t>Chocaman</t>
@@ -10135,6 +13690,11 @@
       </c>
     </row>
     <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B742" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -10148,6 +13708,11 @@
       </c>
     </row>
     <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B743" t="inlineStr">
         <is>
           <t>Coatzintla</t>
@@ -10161,6 +13726,11 @@
       </c>
     </row>
     <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B744" t="inlineStr">
         <is>
           <t>Comapa</t>
@@ -10174,6 +13744,11 @@
       </c>
     </row>
     <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B745" t="inlineStr">
         <is>
           <t>Cordoba</t>
@@ -10187,6 +13762,11 @@
       </c>
     </row>
     <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B746" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -10200,6 +13780,11 @@
       </c>
     </row>
     <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B747" t="inlineStr">
         <is>
           <t>Cotaxtla</t>
@@ -10213,6 +13798,11 @@
       </c>
     </row>
     <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B748" t="inlineStr">
         <is>
           <t>Coyutla</t>
@@ -10226,6 +13816,11 @@
       </c>
     </row>
     <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B749" t="inlineStr">
         <is>
           <t>Cuichapa</t>
@@ -10239,6 +13834,11 @@
       </c>
     </row>
     <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B750" t="inlineStr">
         <is>
           <t>Cuitlahuac</t>
@@ -10252,6 +13852,11 @@
       </c>
     </row>
     <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B751" t="inlineStr">
         <is>
           <t>Gutierrez Zamora</t>
@@ -10265,6 +13870,11 @@
       </c>
     </row>
     <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B752" t="inlineStr">
         <is>
           <t>Hidalgotitlan</t>
@@ -10278,6 +13888,11 @@
       </c>
     </row>
     <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B753" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -10291,6 +13906,11 @@
       </c>
     </row>
     <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B754" t="inlineStr">
         <is>
           <t>Hueyapan De Ocampo</t>
@@ -10304,6 +13924,11 @@
       </c>
     </row>
     <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B755" t="inlineStr">
         <is>
           <t>Ixhuatlan De Madero</t>
@@ -10317,6 +13942,11 @@
       </c>
     </row>
     <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B756" t="inlineStr">
         <is>
           <t>Jalacingo</t>
@@ -10330,6 +13960,11 @@
       </c>
     </row>
     <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B757" t="inlineStr">
         <is>
           <t>Jaltipan</t>
@@ -10343,6 +13978,11 @@
       </c>
     </row>
     <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B758" t="inlineStr">
         <is>
           <t>Jamapa</t>
@@ -10356,6 +13996,11 @@
       </c>
     </row>
     <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B759" t="inlineStr">
         <is>
           <t>Jose Azueta</t>
@@ -10369,6 +14014,11 @@
       </c>
     </row>
     <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B760" t="inlineStr">
         <is>
           <t>Juan Rodriguez Clara</t>
@@ -10382,6 +14032,11 @@
       </c>
     </row>
     <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B761" t="inlineStr">
         <is>
           <t>La Antigua</t>
@@ -10395,6 +14050,11 @@
       </c>
     </row>
     <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B762" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -10408,6 +14068,11 @@
       </c>
     </row>
     <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B763" t="inlineStr">
         <is>
           <t>Lerdo De Tejada</t>
@@ -10421,6 +14086,11 @@
       </c>
     </row>
     <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B764" t="inlineStr">
         <is>
           <t>Maltrata</t>
@@ -10434,6 +14104,11 @@
       </c>
     </row>
     <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B765" t="inlineStr">
         <is>
           <t>Manlio Fabio Altamirano</t>
@@ -10447,6 +14122,11 @@
       </c>
     </row>
     <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B766" t="inlineStr">
         <is>
           <t>Mariano Escobedo</t>
@@ -10460,6 +14140,11 @@
       </c>
     </row>
     <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B767" t="inlineStr">
         <is>
           <t>Martinez De La Torre</t>
@@ -10473,6 +14158,11 @@
       </c>
     </row>
     <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B768" t="inlineStr">
         <is>
           <t>Minatitlan</t>
@@ -10486,6 +14176,11 @@
       </c>
     </row>
     <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B769" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -10499,6 +14194,11 @@
       </c>
     </row>
     <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B770" t="inlineStr">
         <is>
           <t>Moloacan</t>
@@ -10512,6 +14212,11 @@
       </c>
     </row>
     <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B771" t="inlineStr">
         <is>
           <t>Nogales</t>
@@ -10525,6 +14230,11 @@
       </c>
     </row>
     <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B772" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -10538,6 +14248,11 @@
       </c>
     </row>
     <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B773" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -10551,6 +14266,11 @@
       </c>
     </row>
     <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B774" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -10564,6 +14284,11 @@
       </c>
     </row>
     <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B775" t="inlineStr">
         <is>
           <t>Paso De Ovejas</t>
@@ -10577,6 +14302,11 @@
       </c>
     </row>
     <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B776" t="inlineStr">
         <is>
           <t>Paso Del Macho</t>
@@ -10590,6 +14320,11 @@
       </c>
     </row>
     <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B777" t="inlineStr">
         <is>
           <t>Perote</t>
@@ -10603,6 +14338,11 @@
       </c>
     </row>
     <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B778" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -10616,6 +14356,11 @@
       </c>
     </row>
     <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B779" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -10629,6 +14374,11 @@
       </c>
     </row>
     <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B780" t="inlineStr">
         <is>
           <t>Puente Nacional</t>
@@ -10642,6 +14392,11 @@
       </c>
     </row>
     <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B781" t="inlineStr">
         <is>
           <t>San Andres Tuxtla</t>
@@ -10655,6 +14410,11 @@
       </c>
     </row>
     <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B782" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -10668,6 +14428,11 @@
       </c>
     </row>
     <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B783" t="inlineStr">
         <is>
           <t>Tantoyuca</t>
@@ -10681,6 +14446,11 @@
       </c>
     </row>
     <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B784" t="inlineStr">
         <is>
           <t>Temapache</t>
@@ -10694,6 +14464,11 @@
       </c>
     </row>
     <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B785" t="inlineStr">
         <is>
           <t>Texcatepec</t>
@@ -10707,6 +14482,11 @@
       </c>
     </row>
     <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B786" t="inlineStr">
         <is>
           <t>Texistepec</t>
@@ -10720,6 +14500,11 @@
       </c>
     </row>
     <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B787" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -10733,6 +14518,11 @@
       </c>
     </row>
     <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B788" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -10746,6 +14536,11 @@
       </c>
     </row>
     <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B789" t="inlineStr">
         <is>
           <t>Tihuatlan</t>
@@ -10759,6 +14554,11 @@
       </c>
     </row>
     <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B790" t="inlineStr">
         <is>
           <t>Tlacojalpan</t>
@@ -10772,6 +14572,11 @@
       </c>
     </row>
     <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B791" t="inlineStr">
         <is>
           <t>Tlacotalpan</t>
@@ -10785,6 +14590,11 @@
       </c>
     </row>
     <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B792" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -10798,6 +14608,11 @@
       </c>
     </row>
     <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B793" t="inlineStr">
         <is>
           <t>Tlaltetela</t>
@@ -10811,6 +14626,11 @@
       </c>
     </row>
     <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B794" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -10824,6 +14644,11 @@
       </c>
     </row>
     <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B795" t="inlineStr">
         <is>
           <t>Tomatlan</t>
@@ -10837,6 +14662,11 @@
       </c>
     </row>
     <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B796" t="inlineStr">
         <is>
           <t>Tres Valles</t>
@@ -10850,6 +14680,11 @@
       </c>
     </row>
     <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B797" t="inlineStr">
         <is>
           <t>Tuxpam</t>
@@ -10863,6 +14698,11 @@
       </c>
     </row>
     <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B798" t="inlineStr">
         <is>
           <t>Ursulo Galvan</t>
@@ -10876,6 +14716,11 @@
       </c>
     </row>
     <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B799" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -10889,6 +14734,11 @@
       </c>
     </row>
     <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B800" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -10902,6 +14752,11 @@
       </c>
     </row>
     <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B801" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -10915,6 +14770,11 @@
       </c>
     </row>
     <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B802" t="inlineStr">
         <is>
           <t>Zacualpan</t>
@@ -10928,6 +14788,11 @@
       </c>
     </row>
     <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B803" t="inlineStr">
         <is>
           <t>Zentla</t>
@@ -10941,6 +14806,11 @@
       </c>
     </row>
     <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B804" t="inlineStr">
         <is>
           <t>Total</t>
@@ -10972,6 +14842,11 @@
       </c>
     </row>
     <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>Yucatan</t>
+        </is>
+      </c>
       <c r="B806" t="inlineStr">
         <is>
           <t>Total</t>
@@ -11003,6 +14878,11 @@
       </c>
     </row>
     <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B808" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -11016,6 +14896,11 @@
       </c>
     </row>
     <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B809" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -11029,6 +14914,11 @@
       </c>
     </row>
     <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B810" t="inlineStr">
         <is>
           <t>Jalpa</t>
@@ -11042,6 +14932,11 @@
       </c>
     </row>
     <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B811" t="inlineStr">
         <is>
           <t>Jerez</t>
@@ -11055,6 +14950,11 @@
       </c>
     </row>
     <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B812" t="inlineStr">
         <is>
           <t>Jimenez Del Teul</t>
@@ -11068,6 +14968,11 @@
       </c>
     </row>
     <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B813" t="inlineStr">
         <is>
           <t>Loreto</t>
@@ -11081,6 +14986,11 @@
       </c>
     </row>
     <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B814" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -11094,6 +15004,11 @@
       </c>
     </row>
     <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B815" t="inlineStr">
         <is>
           <t>Rio Grande</t>
@@ -11107,6 +15022,11 @@
       </c>
     </row>
     <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B816" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -11120,6 +15040,11 @@
       </c>
     </row>
     <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B817" t="inlineStr">
         <is>
           <t>Tepechitlan</t>
@@ -11133,6 +15058,11 @@
       </c>
     </row>
     <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B818" t="inlineStr">
         <is>
           <t>Tlaltenango De Sanchez Roman</t>
@@ -11146,6 +15076,11 @@
       </c>
     </row>
     <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B819" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -11159,6 +15094,11 @@
       </c>
     </row>
     <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B820" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -11172,6 +15112,11 @@
       </c>
     </row>
     <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B821" t="inlineStr">
         <is>
           <t>Total</t>
